--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1197,6 +1197,9 @@
   </si>
   <si>
     <t xml:space="preserve">2018-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-25</t>
   </si>
 </sst>
 </file>
@@ -10478,6 +10481,29 @@
         <v>-0.6132</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>395</v>
+      </c>
+      <c r="B390" t="n">
+        <v>-0.2609</v>
+      </c>
+      <c r="C390" t="n">
+        <v>-0.6711</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1.0577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -1200,6 +1200,9 @@
   </si>
   <si>
     <t xml:space="preserve">2018-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-26</t>
   </si>
 </sst>
 </file>
@@ -10504,6 +10507,29 @@
         <v>1.0577</v>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>396</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.7194</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1.2432</v>
+      </c>
+      <c r="D391" t="n">
+        <v>3.2471</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1.2389</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1.3956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,1174 +35,1180 @@
     <t xml:space="preserve">ISS</t>
   </si>
   <si>
-    <t xml:space="preserve">2017-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-02-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-03-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-06-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-11-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-12-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-26</t>
+    <t xml:space="preserve">X2017.01.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.01.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.02.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.03.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.04.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.05.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.06.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.07.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.08.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.09.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.10.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.11.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2017.12.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.04.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.27</t>
   </si>
 </sst>
 </file>
@@ -9684,22 +9690,22 @@
         <v>360</v>
       </c>
       <c r="B355" t="n">
-        <v>-1.1364</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>-1.4188</v>
+        <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>-1.4486</v>
+        <v>0</v>
       </c>
       <c r="E355" t="n">
-        <v>0.3886</v>
+        <v>0</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>-0.0455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -9707,22 +9713,22 @@
         <v>361</v>
       </c>
       <c r="B356" t="n">
-        <v>0.5409</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.0928</v>
+        <v>0</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.2526</v>
+        <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-1.9967</v>
+        <v>0</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>1.4117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -9730,22 +9736,22 @@
         <v>362</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.2017</v>
+        <v>0.5409</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.8364</v>
+        <v>-0.0928</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.5526</v>
+        <v>-0.2526</v>
       </c>
       <c r="E357" t="n">
-        <v>-1.0395</v>
+        <v>-1.9967</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>-0.1347</v>
+        <v>1.4117</v>
       </c>
     </row>
     <row r="358">
@@ -9753,22 +9759,22 @@
         <v>363</v>
       </c>
       <c r="B358" t="n">
-        <v>1.1456</v>
+        <v>-0.2017</v>
       </c>
       <c r="C358" t="n">
-        <v>2.1556</v>
+        <v>-0.8364</v>
       </c>
       <c r="D358" t="n">
-        <v>0.3705</v>
+        <v>-0.5526</v>
       </c>
       <c r="E358" t="n">
-        <v>-0.5462</v>
+        <v>-1.0395</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>-0.7194</v>
+        <v>-0.1347</v>
       </c>
     </row>
     <row r="359">
@@ -9776,22 +9782,22 @@
         <v>364</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.0666</v>
+        <v>1.1456</v>
       </c>
       <c r="C359" t="n">
-        <v>0.367</v>
+        <v>2.1556</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.4844</v>
+        <v>0.3705</v>
       </c>
       <c r="E359" t="n">
-        <v>2.2391</v>
+        <v>-0.5462</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0.4076</v>
+        <v>-0.7194</v>
       </c>
     </row>
     <row r="360">
@@ -9799,22 +9805,22 @@
         <v>365</v>
       </c>
       <c r="B360" t="n">
-        <v>1.5333</v>
+        <v>-0.0666</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.1371</v>
+        <v>0.367</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.0927</v>
+        <v>-0.4844</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>2.2391</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0.1804</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="361">
@@ -9822,22 +9828,22 @@
         <v>366</v>
       </c>
       <c r="B361" t="n">
-        <v>-1.1162</v>
+        <v>1.5333</v>
       </c>
       <c r="C361" t="n">
-        <v>0.2746</v>
+        <v>-0.1371</v>
       </c>
       <c r="D361" t="n">
-        <v>0.4872</v>
+        <v>-0.0927</v>
       </c>
       <c r="E361" t="n">
-        <v>2.0455</v>
+        <v>0</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>0.1351</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="362">
@@ -9845,22 +9851,22 @@
         <v>367</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.3984</v>
+        <v>-1.1162</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.5933</v>
+        <v>0.2746</v>
       </c>
       <c r="D362" t="n">
-        <v>-1.2237</v>
+        <v>0.4872</v>
       </c>
       <c r="E362" t="n">
-        <v>-2.7738</v>
+        <v>2.0455</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1.8885</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="363">
@@ -9868,22 +9874,22 @@
         <v>368</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.7333</v>
+        <v>-0.3984</v>
       </c>
       <c r="C363" t="n">
-        <v>-2.112</v>
+        <v>-0.5933</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.9818</v>
+        <v>-1.2237</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.9579</v>
+        <v>-2.7738</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>-1.5887</v>
+        <v>1.8885</v>
       </c>
     </row>
     <row r="364">
@@ -9891,22 +9897,22 @@
         <v>369</v>
       </c>
       <c r="B364" t="n">
-        <v>0.4701</v>
+        <v>-0.7333</v>
       </c>
       <c r="C364" t="n">
-        <v>-1.1257</v>
+        <v>-2.112</v>
       </c>
       <c r="D364" t="n">
-        <v>-2.5732</v>
+        <v>-0.9818</v>
       </c>
       <c r="E364" t="n">
-        <v>0.9462</v>
+        <v>-0.9579</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>-0.0448</v>
+        <v>-1.5887</v>
       </c>
     </row>
     <row r="365">
@@ -9914,22 +9920,22 @@
         <v>370</v>
       </c>
       <c r="B365" t="n">
-        <v>0.4011</v>
+        <v>0.4701</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.9962</v>
+        <v>-1.1257</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.0727</v>
+        <v>-2.5732</v>
       </c>
       <c r="E365" t="n">
-        <v>5.603</v>
+        <v>0.9462</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>-0.0897</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="366">
@@ -9937,22 +9943,22 @@
         <v>371</v>
       </c>
       <c r="B366" t="n">
-        <v>0.466</v>
+        <v>0.4011</v>
       </c>
       <c r="C366" t="n">
-        <v>-1.4375</v>
+        <v>-0.9962</v>
       </c>
       <c r="D366" t="n">
-        <v>-3.4433</v>
+        <v>-0.0727</v>
       </c>
       <c r="E366" t="n">
-        <v>-2.5444</v>
+        <v>5.603</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>-0.5837</v>
+        <v>-0.0897</v>
       </c>
     </row>
     <row r="367">
@@ -9960,22 +9966,22 @@
         <v>372</v>
       </c>
       <c r="B367" t="n">
-        <v>0.9278</v>
+        <v>0.466</v>
       </c>
       <c r="C367" t="n">
-        <v>0.4861</v>
+        <v>-1.4375</v>
       </c>
       <c r="D367" t="n">
-        <v>-1.3059</v>
+        <v>-3.4433</v>
       </c>
       <c r="E367" t="n">
-        <v>0.6679</v>
+        <v>-2.5444</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1.4002</v>
+        <v>-0.5837</v>
       </c>
     </row>
     <row r="368">
@@ -9983,22 +9989,22 @@
         <v>373</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.6415</v>
+        <v>0.9278</v>
       </c>
       <c r="C368" t="n">
-        <v>-1.4998</v>
+        <v>0.4861</v>
       </c>
       <c r="D368" t="n">
-        <v>-2.0356</v>
+        <v>-1.3059</v>
       </c>
       <c r="E368" t="n">
-        <v>0.9248</v>
+        <v>0.6679</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>-0.98</v>
+        <v>1.4002</v>
       </c>
     </row>
     <row r="369">
@@ -10006,22 +10012,22 @@
         <v>374</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.8011</v>
+        <v>-1.6415</v>
       </c>
       <c r="C369" t="n">
-        <v>-2.9224</v>
+        <v>-1.4998</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.2597</v>
+        <v>-2.0356</v>
       </c>
       <c r="E369" t="n">
-        <v>-3.6853</v>
+        <v>0.9248</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>-1.3495</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="370">
@@ -10029,22 +10035,22 @@
         <v>375</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.2019</v>
+        <v>-0.8011</v>
       </c>
       <c r="C370" t="n">
-        <v>0.4807</v>
+        <v>-2.9224</v>
       </c>
       <c r="D370" t="n">
-        <v>0.026</v>
+        <v>-0.2597</v>
       </c>
       <c r="E370" t="n">
-        <v>1.8201</v>
+        <v>-3.6853</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>0.0912</v>
+        <v>-1.3495</v>
       </c>
     </row>
     <row r="371">
@@ -10052,22 +10058,22 @@
         <v>376</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.2697</v>
+        <v>-0.2019</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>0.4807</v>
       </c>
       <c r="D371" t="n">
-        <v>-2.6295</v>
+        <v>0.026</v>
       </c>
       <c r="E371" t="n">
-        <v>-1.8485</v>
+        <v>1.8201</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>-1.5945</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="372">
@@ -10075,22 +10081,22 @@
         <v>377</v>
       </c>
       <c r="B372" t="n">
-        <v>1.2847</v>
+        <v>-0.2697</v>
       </c>
       <c r="C372" t="n">
-        <v>0.5791</v>
+        <v>0</v>
       </c>
       <c r="D372" t="n">
-        <v>2.1123</v>
+        <v>-2.6295</v>
       </c>
       <c r="E372" t="n">
-        <v>1.904</v>
+        <v>-1.8485</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>1.5278</v>
+        <v>-1.5945</v>
       </c>
     </row>
     <row r="373">
@@ -10098,22 +10104,22 @@
         <v>378</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.8011</v>
+        <v>1.2847</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.1752</v>
+        <v>0.5791</v>
       </c>
       <c r="D373" t="n">
-        <v>-1.8068</v>
+        <v>2.1123</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.528</v>
+        <v>1.904</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>-1.368</v>
+        <v>1.5278</v>
       </c>
     </row>
     <row r="374">
@@ -10121,22 +10127,22 @@
         <v>379</v>
       </c>
       <c r="B374" t="n">
-        <v>0.9421</v>
+        <v>-0.8011</v>
       </c>
       <c r="C374" t="n">
-        <v>1.003</v>
+        <v>-0.1752</v>
       </c>
       <c r="D374" t="n">
-        <v>0.5867</v>
+        <v>-1.8068</v>
       </c>
       <c r="E374" t="n">
-        <v>2.3377</v>
+        <v>-0.528</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0.8784</v>
+        <v>-1.368</v>
       </c>
     </row>
     <row r="375">
@@ -10144,22 +10150,22 @@
         <v>380</v>
       </c>
       <c r="B375" t="n">
-        <v>0.8</v>
+        <v>0.9421</v>
       </c>
       <c r="C375" t="n">
-        <v>-2.0109</v>
+        <v>1.003</v>
       </c>
       <c r="D375" t="n">
-        <v>-1.7232</v>
+        <v>0.5867</v>
       </c>
       <c r="E375" t="n">
-        <v>1.3466</v>
+        <v>2.3377</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>-1.3749</v>
+        <v>0.8784</v>
       </c>
     </row>
     <row r="376">
@@ -10167,22 +10173,22 @@
         <v>381</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.1984</v>
+        <v>0.8</v>
       </c>
       <c r="C376" t="n">
-        <v>-2.6096</v>
+        <v>-2.0109</v>
       </c>
       <c r="D376" t="n">
-        <v>2.1041</v>
+        <v>-1.7232</v>
       </c>
       <c r="E376" t="n">
-        <v>1.3287</v>
+        <v>1.3466</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>0.7435</v>
+        <v>-1.3749</v>
       </c>
     </row>
     <row r="377">
@@ -10190,22 +10196,22 @@
         <v>382</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2651</v>
+        <v>-0.1984</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.8065</v>
+        <v>-2.6096</v>
       </c>
       <c r="D377" t="n">
-        <v>-2.4042</v>
+        <v>2.1041</v>
       </c>
       <c r="E377" t="n">
-        <v>-0.34</v>
+        <v>1.3287</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>1.5683</v>
+        <v>0.7435</v>
       </c>
     </row>
     <row r="378">
@@ -10213,22 +10219,22 @@
         <v>383</v>
       </c>
       <c r="B378" t="n">
-        <v>0.9914</v>
+        <v>0.2651</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9441</v>
+        <v>-0.8065</v>
       </c>
       <c r="D378" t="n">
-        <v>1.2453</v>
+        <v>-2.4042</v>
       </c>
       <c r="E378" t="n">
-        <v>0.3899</v>
+        <v>-0.34</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1.0899</v>
+        <v>1.5683</v>
       </c>
     </row>
     <row r="379">
@@ -10236,22 +10242,22 @@
         <v>384</v>
       </c>
       <c r="B379" t="n">
-        <v>0.4581</v>
+        <v>0.9914</v>
       </c>
       <c r="C379" t="n">
-        <v>0.7015</v>
+        <v>0.9441</v>
       </c>
       <c r="D379" t="n">
-        <v>0.9626</v>
+        <v>1.2453</v>
       </c>
       <c r="E379" t="n">
-        <v>3.2524</v>
+        <v>0.3899</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1.3477</v>
+        <v>1.0899</v>
       </c>
     </row>
     <row r="380">
@@ -10259,22 +10265,22 @@
         <v>385</v>
       </c>
       <c r="B380" t="n">
-        <v>1.811</v>
+        <v>0.4581</v>
       </c>
       <c r="C380" t="n">
-        <v>0.0774</v>
+        <v>0.7015</v>
       </c>
       <c r="D380" t="n">
-        <v>-1.3771</v>
+        <v>0.9626</v>
       </c>
       <c r="E380" t="n">
-        <v>-0.7522</v>
+        <v>3.2524</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>-0.7092</v>
+        <v>1.3477</v>
       </c>
     </row>
     <row r="381">
@@ -10282,22 +10288,22 @@
         <v>386</v>
       </c>
       <c r="B381" t="n">
-        <v>0.2587</v>
+        <v>1.811</v>
       </c>
       <c r="C381" t="n">
-        <v>0.5672</v>
+        <v>0.0774</v>
       </c>
       <c r="D381" t="n">
-        <v>1.3695</v>
+        <v>-1.3771</v>
       </c>
       <c r="E381" t="n">
-        <v>2.558</v>
+        <v>-0.7522</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>0.2232</v>
+        <v>-0.7092</v>
       </c>
     </row>
     <row r="382">
@@ -10305,22 +10311,22 @@
         <v>387</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.7742</v>
+        <v>0.2587</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.564</v>
+        <v>0.5672</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.2649</v>
+        <v>1.3695</v>
       </c>
       <c r="E382" t="n">
-        <v>0.2771</v>
+        <v>2.558</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>0.0891</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="383">
@@ -10328,22 +10334,22 @@
         <v>388</v>
       </c>
       <c r="B383" t="n">
-        <v>0.1951</v>
+        <v>-0.7742</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.1031</v>
+        <v>-0.564</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.2656</v>
+        <v>-0.2649</v>
       </c>
       <c r="E383" t="n">
-        <v>0.4146</v>
+        <v>0.2771</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>-0.7566</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="384">
@@ -10351,22 +10357,22 @@
         <v>389</v>
       </c>
       <c r="B384" t="n">
-        <v>1.7521</v>
+        <v>0.1951</v>
       </c>
       <c r="C384" t="n">
-        <v>0.6968</v>
+        <v>-0.1031</v>
       </c>
       <c r="D384" t="n">
-        <v>2.3702</v>
+        <v>-0.2656</v>
       </c>
       <c r="E384" t="n">
-        <v>2.2936</v>
+        <v>0.4146</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>-0.1794</v>
+        <v>-0.7566</v>
       </c>
     </row>
     <row r="385">
@@ -10374,22 +10380,22 @@
         <v>390</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.4464</v>
+        <v>1.7521</v>
       </c>
       <c r="C385" t="n">
-        <v>-9.1235</v>
+        <v>0.6968</v>
       </c>
       <c r="D385" t="n">
-        <v>0.5983</v>
+        <v>2.3702</v>
       </c>
       <c r="E385" t="n">
-        <v>1.1211</v>
+        <v>2.2936</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>0.1797</v>
+        <v>-0.1794</v>
       </c>
     </row>
     <row r="386">
@@ -10397,22 +10403,22 @@
         <v>391</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.7047</v>
+        <v>-0.4464</v>
       </c>
       <c r="C386" t="n">
-        <v>2.5945</v>
+        <v>-9.1235</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.4138</v>
+        <v>0.5983</v>
       </c>
       <c r="E386" t="n">
-        <v>-0.2217</v>
+        <v>1.1211</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>2.1076</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="387">
@@ -10420,22 +10426,22 @@
         <v>392</v>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>-0.7047</v>
       </c>
       <c r="C387" t="n">
-        <v>-0.6322</v>
+        <v>2.5945</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.1298</v>
+        <v>-0.4138</v>
       </c>
       <c r="E387" t="n">
-        <v>1.0222</v>
+        <v>-0.2217</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>0.4831</v>
+        <v>2.1076</v>
       </c>
     </row>
     <row r="388">
@@ -10446,19 +10452,19 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1.7151</v>
+        <v>-0.6322</v>
       </c>
       <c r="D388" t="n">
-        <v>0.13</v>
+        <v>-0.1298</v>
       </c>
       <c r="E388" t="n">
-        <v>-1.1879</v>
+        <v>1.0222</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>-0.2185</v>
+        <v>0.4831</v>
       </c>
     </row>
     <row r="389">
@@ -10466,22 +10472,22 @@
         <v>394</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.0968</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1.3054</v>
+        <v>1.7151</v>
       </c>
       <c r="D389" t="n">
-        <v>2.0254</v>
+        <v>0.13</v>
       </c>
       <c r="E389" t="n">
-        <v>0.4898</v>
+        <v>-1.1879</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>-0.6132</v>
+        <v>-0.2185</v>
       </c>
     </row>
     <row r="390">
@@ -10489,22 +10495,22 @@
         <v>395</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.2609</v>
+        <v>-1.0968</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.6711</v>
+        <v>1.3054</v>
       </c>
       <c r="D390" t="n">
-        <v>0.3309</v>
+        <v>2.0254</v>
       </c>
       <c r="E390" t="n">
-        <v>0.1329</v>
+        <v>0.4898</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>1.0577</v>
+        <v>-0.6132</v>
       </c>
     </row>
     <row r="391">
@@ -10512,22 +10518,68 @@
         <v>396</v>
       </c>
       <c r="B391" t="n">
+        <v>-0.2609</v>
+      </c>
+      <c r="C391" t="n">
+        <v>-0.6711</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.1329</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1.0577</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>397</v>
+      </c>
+      <c r="B392" t="n">
         <v>0.7194</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C392" t="n">
         <v>1.2432</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D392" t="n">
         <v>3.2471</v>
       </c>
-      <c r="E391" t="n">
+      <c r="E392" t="n">
         <v>1.2389</v>
       </c>
-      <c r="F391" t="n">
-        <v>0</v>
-      </c>
-      <c r="G391" t="n">
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" t="n">
         <v>1.3956</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>398</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.6494</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1.1057</v>
+      </c>
+      <c r="E393" t="n">
+        <v>-1.2675</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1.5484</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="400">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,1180 +35,1183 @@
     <t xml:space="preserve">ISS</t>
   </si>
   <si>
-    <t xml:space="preserve">X2017.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.01.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.02.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.03.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.04.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.05.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.06.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.07.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.08.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.09.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.10.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.11.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2017.12.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.01.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.02.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.03.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.04.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.05.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.04.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.06.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X2018.07.27</t>
+    <t xml:space="preserve">2017-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-09-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-12-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-03-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-31</t>
   </si>
 </sst>
 </file>
@@ -9690,22 +9693,22 @@
         <v>360</v>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>-1.1364</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>-1.4188</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>-1.4486</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>0.3886</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>0</v>
+        <v>-0.0455</v>
       </c>
     </row>
     <row r="356">
@@ -9713,22 +9716,22 @@
         <v>361</v>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>0.5409</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>-0.0928</v>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>-0.2526</v>
       </c>
       <c r="E356" t="n">
-        <v>0</v>
+        <v>-1.9967</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>1.4117</v>
       </c>
     </row>
     <row r="357">
@@ -9736,22 +9739,22 @@
         <v>362</v>
       </c>
       <c r="B357" t="n">
-        <v>0.5409</v>
+        <v>-0.2017</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.0928</v>
+        <v>-0.8364</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.2526</v>
+        <v>-0.5526</v>
       </c>
       <c r="E357" t="n">
-        <v>-1.9967</v>
+        <v>-1.0395</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1.4117</v>
+        <v>-0.1347</v>
       </c>
     </row>
     <row r="358">
@@ -9759,22 +9762,22 @@
         <v>363</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.2017</v>
+        <v>1.1456</v>
       </c>
       <c r="C358" t="n">
-        <v>-0.8364</v>
+        <v>2.1556</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.5526</v>
+        <v>0.3705</v>
       </c>
       <c r="E358" t="n">
-        <v>-1.0395</v>
+        <v>-0.5462</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>-0.1347</v>
+        <v>-0.7194</v>
       </c>
     </row>
     <row r="359">
@@ -9782,22 +9785,22 @@
         <v>364</v>
       </c>
       <c r="B359" t="n">
-        <v>1.1456</v>
+        <v>-0.0666</v>
       </c>
       <c r="C359" t="n">
-        <v>2.1556</v>
+        <v>0.367</v>
       </c>
       <c r="D359" t="n">
-        <v>0.3705</v>
+        <v>-0.4844</v>
       </c>
       <c r="E359" t="n">
-        <v>-0.5462</v>
+        <v>2.2391</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>-0.7194</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="360">
@@ -9805,22 +9808,22 @@
         <v>365</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.0666</v>
+        <v>1.5333</v>
       </c>
       <c r="C360" t="n">
-        <v>0.367</v>
+        <v>-0.1371</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.4844</v>
+        <v>-0.0927</v>
       </c>
       <c r="E360" t="n">
-        <v>2.2391</v>
+        <v>0</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0.4076</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="361">
@@ -9828,22 +9831,22 @@
         <v>366</v>
       </c>
       <c r="B361" t="n">
-        <v>1.5333</v>
+        <v>-1.1162</v>
       </c>
       <c r="C361" t="n">
-        <v>-0.1371</v>
+        <v>0.2746</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.0927</v>
+        <v>0.4872</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>2.0455</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>0.1804</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="362">
@@ -9851,22 +9854,22 @@
         <v>367</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.1162</v>
+        <v>-0.3984</v>
       </c>
       <c r="C362" t="n">
-        <v>0.2746</v>
+        <v>-0.5933</v>
       </c>
       <c r="D362" t="n">
-        <v>0.4872</v>
+        <v>-1.2237</v>
       </c>
       <c r="E362" t="n">
-        <v>2.0455</v>
+        <v>-2.7738</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>0.1351</v>
+        <v>1.8885</v>
       </c>
     </row>
     <row r="363">
@@ -9874,22 +9877,22 @@
         <v>368</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.3984</v>
+        <v>-0.7333</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.5933</v>
+        <v>-2.112</v>
       </c>
       <c r="D363" t="n">
-        <v>-1.2237</v>
+        <v>-0.9818</v>
       </c>
       <c r="E363" t="n">
-        <v>-2.7738</v>
+        <v>-0.9579</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
       </c>
       <c r="G363" t="n">
-        <v>1.8885</v>
+        <v>-1.5887</v>
       </c>
     </row>
     <row r="364">
@@ -9897,22 +9900,22 @@
         <v>369</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.7333</v>
+        <v>0.4701</v>
       </c>
       <c r="C364" t="n">
-        <v>-2.112</v>
+        <v>-1.1257</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.9818</v>
+        <v>-2.5732</v>
       </c>
       <c r="E364" t="n">
-        <v>-0.9579</v>
+        <v>0.9462</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
       </c>
       <c r="G364" t="n">
-        <v>-1.5887</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="365">
@@ -9920,22 +9923,22 @@
         <v>370</v>
       </c>
       <c r="B365" t="n">
-        <v>0.4701</v>
+        <v>0.4011</v>
       </c>
       <c r="C365" t="n">
-        <v>-1.1257</v>
+        <v>-0.9962</v>
       </c>
       <c r="D365" t="n">
-        <v>-2.5732</v>
+        <v>-0.0727</v>
       </c>
       <c r="E365" t="n">
-        <v>0.9462</v>
+        <v>5.603</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>-0.0448</v>
+        <v>-0.0897</v>
       </c>
     </row>
     <row r="366">
@@ -9943,22 +9946,22 @@
         <v>371</v>
       </c>
       <c r="B366" t="n">
-        <v>0.4011</v>
+        <v>0.466</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.9962</v>
+        <v>-1.4375</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.0727</v>
+        <v>-3.4433</v>
       </c>
       <c r="E366" t="n">
-        <v>5.603</v>
+        <v>-2.5444</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>-0.0897</v>
+        <v>-0.5837</v>
       </c>
     </row>
     <row r="367">
@@ -9966,22 +9969,22 @@
         <v>372</v>
       </c>
       <c r="B367" t="n">
-        <v>0.466</v>
+        <v>0.9278</v>
       </c>
       <c r="C367" t="n">
-        <v>-1.4375</v>
+        <v>0.4861</v>
       </c>
       <c r="D367" t="n">
-        <v>-3.4433</v>
+        <v>-1.3059</v>
       </c>
       <c r="E367" t="n">
-        <v>-2.5444</v>
+        <v>0.6679</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>-0.5837</v>
+        <v>1.4002</v>
       </c>
     </row>
     <row r="368">
@@ -9989,22 +9992,22 @@
         <v>373</v>
       </c>
       <c r="B368" t="n">
-        <v>0.9278</v>
+        <v>-1.6415</v>
       </c>
       <c r="C368" t="n">
-        <v>0.4861</v>
+        <v>-1.4998</v>
       </c>
       <c r="D368" t="n">
-        <v>-1.3059</v>
+        <v>-2.0356</v>
       </c>
       <c r="E368" t="n">
-        <v>0.6679</v>
+        <v>0.9248</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>1.4002</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="369">
@@ -10012,22 +10015,22 @@
         <v>374</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.6415</v>
+        <v>-0.8011</v>
       </c>
       <c r="C369" t="n">
-        <v>-1.4998</v>
+        <v>-2.9224</v>
       </c>
       <c r="D369" t="n">
-        <v>-2.0356</v>
+        <v>-0.2597</v>
       </c>
       <c r="E369" t="n">
-        <v>0.9248</v>
+        <v>-3.6853</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
       </c>
       <c r="G369" t="n">
-        <v>-0.98</v>
+        <v>-1.3495</v>
       </c>
     </row>
     <row r="370">
@@ -10035,22 +10038,22 @@
         <v>375</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.8011</v>
+        <v>-0.2019</v>
       </c>
       <c r="C370" t="n">
-        <v>-2.9224</v>
+        <v>0.4807</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.2597</v>
+        <v>0.026</v>
       </c>
       <c r="E370" t="n">
-        <v>-3.6853</v>
+        <v>1.8201</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>-1.3495</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="371">
@@ -10058,22 +10061,22 @@
         <v>376</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.2019</v>
+        <v>-0.2697</v>
       </c>
       <c r="C371" t="n">
-        <v>0.4807</v>
+        <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>0.026</v>
+        <v>-2.6295</v>
       </c>
       <c r="E371" t="n">
-        <v>1.8201</v>
+        <v>-1.8485</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>0.0912</v>
+        <v>-1.5945</v>
       </c>
     </row>
     <row r="372">
@@ -10081,22 +10084,22 @@
         <v>377</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.2697</v>
+        <v>1.2847</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>0.5791</v>
       </c>
       <c r="D372" t="n">
-        <v>-2.6295</v>
+        <v>2.1123</v>
       </c>
       <c r="E372" t="n">
-        <v>-1.8485</v>
+        <v>1.904</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>-1.5945</v>
+        <v>1.5278</v>
       </c>
     </row>
     <row r="373">
@@ -10104,22 +10107,22 @@
         <v>378</v>
       </c>
       <c r="B373" t="n">
-        <v>1.2847</v>
+        <v>-0.8011</v>
       </c>
       <c r="C373" t="n">
-        <v>0.5791</v>
+        <v>-0.1752</v>
       </c>
       <c r="D373" t="n">
-        <v>2.1123</v>
+        <v>-1.8068</v>
       </c>
       <c r="E373" t="n">
-        <v>1.904</v>
+        <v>-0.528</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>1.5278</v>
+        <v>-1.368</v>
       </c>
     </row>
     <row r="374">
@@ -10127,22 +10130,22 @@
         <v>379</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.8011</v>
+        <v>0.9421</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.1752</v>
+        <v>1.003</v>
       </c>
       <c r="D374" t="n">
-        <v>-1.8068</v>
+        <v>0.5867</v>
       </c>
       <c r="E374" t="n">
-        <v>-0.528</v>
+        <v>2.3377</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>-1.368</v>
+        <v>0.8784</v>
       </c>
     </row>
     <row r="375">
@@ -10150,22 +10153,22 @@
         <v>380</v>
       </c>
       <c r="B375" t="n">
-        <v>0.9421</v>
+        <v>0.8</v>
       </c>
       <c r="C375" t="n">
-        <v>1.003</v>
+        <v>-2.0109</v>
       </c>
       <c r="D375" t="n">
-        <v>0.5867</v>
+        <v>-1.7232</v>
       </c>
       <c r="E375" t="n">
-        <v>2.3377</v>
+        <v>1.3466</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
       </c>
       <c r="G375" t="n">
-        <v>0.8784</v>
+        <v>-1.3749</v>
       </c>
     </row>
     <row r="376">
@@ -10173,22 +10176,22 @@
         <v>381</v>
       </c>
       <c r="B376" t="n">
-        <v>0.8</v>
+        <v>-0.1984</v>
       </c>
       <c r="C376" t="n">
-        <v>-2.0109</v>
+        <v>-2.6096</v>
       </c>
       <c r="D376" t="n">
-        <v>-1.7232</v>
+        <v>2.1041</v>
       </c>
       <c r="E376" t="n">
-        <v>1.3466</v>
+        <v>1.3287</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>-1.3749</v>
+        <v>0.7435</v>
       </c>
     </row>
     <row r="377">
@@ -10196,22 +10199,22 @@
         <v>382</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.1984</v>
+        <v>0.2651</v>
       </c>
       <c r="C377" t="n">
-        <v>-2.6096</v>
+        <v>-0.8065</v>
       </c>
       <c r="D377" t="n">
-        <v>2.1041</v>
+        <v>-2.4042</v>
       </c>
       <c r="E377" t="n">
-        <v>1.3287</v>
+        <v>-0.34</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
       </c>
       <c r="G377" t="n">
-        <v>0.7435</v>
+        <v>1.5683</v>
       </c>
     </row>
     <row r="378">
@@ -10219,22 +10222,22 @@
         <v>383</v>
       </c>
       <c r="B378" t="n">
-        <v>0.2651</v>
+        <v>0.9914</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.8065</v>
+        <v>0.9441</v>
       </c>
       <c r="D378" t="n">
-        <v>-2.4042</v>
+        <v>1.2453</v>
       </c>
       <c r="E378" t="n">
-        <v>-0.34</v>
+        <v>0.3899</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1.5683</v>
+        <v>1.0899</v>
       </c>
     </row>
     <row r="379">
@@ -10242,22 +10245,22 @@
         <v>384</v>
       </c>
       <c r="B379" t="n">
-        <v>0.9914</v>
+        <v>0.4581</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9441</v>
+        <v>0.7015</v>
       </c>
       <c r="D379" t="n">
-        <v>1.2453</v>
+        <v>0.9626</v>
       </c>
       <c r="E379" t="n">
-        <v>0.3899</v>
+        <v>3.2524</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
       </c>
       <c r="G379" t="n">
-        <v>1.0899</v>
+        <v>1.3477</v>
       </c>
     </row>
     <row r="380">
@@ -10265,22 +10268,22 @@
         <v>385</v>
       </c>
       <c r="B380" t="n">
-        <v>0.4581</v>
+        <v>1.811</v>
       </c>
       <c r="C380" t="n">
-        <v>0.7015</v>
+        <v>0.0774</v>
       </c>
       <c r="D380" t="n">
-        <v>0.9626</v>
+        <v>-1.3771</v>
       </c>
       <c r="E380" t="n">
-        <v>3.2524</v>
+        <v>-0.7522</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
       </c>
       <c r="G380" t="n">
-        <v>1.3477</v>
+        <v>-0.7092</v>
       </c>
     </row>
     <row r="381">
@@ -10288,22 +10291,22 @@
         <v>386</v>
       </c>
       <c r="B381" t="n">
-        <v>1.811</v>
+        <v>0.2587</v>
       </c>
       <c r="C381" t="n">
-        <v>0.0774</v>
+        <v>0.5672</v>
       </c>
       <c r="D381" t="n">
-        <v>-1.3771</v>
+        <v>1.3695</v>
       </c>
       <c r="E381" t="n">
-        <v>-0.7522</v>
+        <v>2.558</v>
       </c>
       <c r="F381" t="n">
         <v>0</v>
       </c>
       <c r="G381" t="n">
-        <v>-0.7092</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="382">
@@ -10311,22 +10314,22 @@
         <v>387</v>
       </c>
       <c r="B382" t="n">
-        <v>0.2587</v>
+        <v>-0.7742</v>
       </c>
       <c r="C382" t="n">
-        <v>0.5672</v>
+        <v>-0.564</v>
       </c>
       <c r="D382" t="n">
-        <v>1.3695</v>
+        <v>-0.2649</v>
       </c>
       <c r="E382" t="n">
-        <v>2.558</v>
+        <v>0.2771</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
       </c>
       <c r="G382" t="n">
-        <v>0.2232</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="383">
@@ -10334,22 +10337,22 @@
         <v>388</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.7742</v>
+        <v>0.1951</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.564</v>
+        <v>-0.1031</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.2649</v>
+        <v>-0.2656</v>
       </c>
       <c r="E383" t="n">
-        <v>0.2771</v>
+        <v>0.4146</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
       </c>
       <c r="G383" t="n">
-        <v>0.0891</v>
+        <v>-0.7566</v>
       </c>
     </row>
     <row r="384">
@@ -10357,22 +10360,22 @@
         <v>389</v>
       </c>
       <c r="B384" t="n">
-        <v>0.1951</v>
+        <v>1.7521</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.1031</v>
+        <v>0.6968</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.2656</v>
+        <v>2.3702</v>
       </c>
       <c r="E384" t="n">
-        <v>0.4146</v>
+        <v>2.2936</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
       </c>
       <c r="G384" t="n">
-        <v>-0.7566</v>
+        <v>-0.1794</v>
       </c>
     </row>
     <row r="385">
@@ -10380,22 +10383,22 @@
         <v>390</v>
       </c>
       <c r="B385" t="n">
-        <v>1.7521</v>
+        <v>-0.4464</v>
       </c>
       <c r="C385" t="n">
-        <v>0.6968</v>
+        <v>-9.1235</v>
       </c>
       <c r="D385" t="n">
-        <v>2.3702</v>
+        <v>0.5983</v>
       </c>
       <c r="E385" t="n">
-        <v>2.2936</v>
+        <v>1.1211</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>-0.1794</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="386">
@@ -10403,22 +10406,22 @@
         <v>391</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.4464</v>
+        <v>-0.7047</v>
       </c>
       <c r="C386" t="n">
-        <v>-9.1235</v>
+        <v>2.5945</v>
       </c>
       <c r="D386" t="n">
-        <v>0.5983</v>
+        <v>-0.4138</v>
       </c>
       <c r="E386" t="n">
-        <v>1.1211</v>
+        <v>-0.2217</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>0.1797</v>
+        <v>2.1076</v>
       </c>
     </row>
     <row r="387">
@@ -10426,22 +10429,22 @@
         <v>392</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.7047</v>
+        <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>2.5945</v>
+        <v>-0.6322</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.4138</v>
+        <v>-0.1298</v>
       </c>
       <c r="E387" t="n">
-        <v>-0.2217</v>
+        <v>1.0222</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>2.1076</v>
+        <v>0.4831</v>
       </c>
     </row>
     <row r="388">
@@ -10452,19 +10455,19 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.6322</v>
+        <v>1.7151</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.1298</v>
+        <v>0.13</v>
       </c>
       <c r="E388" t="n">
-        <v>1.0222</v>
+        <v>-1.1879</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
       </c>
       <c r="G388" t="n">
-        <v>0.4831</v>
+        <v>-0.2185</v>
       </c>
     </row>
     <row r="389">
@@ -10472,22 +10475,22 @@
         <v>394</v>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>-1.0968</v>
       </c>
       <c r="C389" t="n">
-        <v>1.7151</v>
+        <v>1.3054</v>
       </c>
       <c r="D389" t="n">
-        <v>0.13</v>
+        <v>2.0254</v>
       </c>
       <c r="E389" t="n">
-        <v>-1.1879</v>
+        <v>0.4898</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
       </c>
       <c r="G389" t="n">
-        <v>-0.2185</v>
+        <v>-0.6132</v>
       </c>
     </row>
     <row r="390">
@@ -10495,22 +10498,22 @@
         <v>395</v>
       </c>
       <c r="B390" t="n">
-        <v>-1.0968</v>
+        <v>-0.2609</v>
       </c>
       <c r="C390" t="n">
-        <v>1.3054</v>
+        <v>-0.6711</v>
       </c>
       <c r="D390" t="n">
-        <v>2.0254</v>
+        <v>0.3309</v>
       </c>
       <c r="E390" t="n">
-        <v>0.4898</v>
+        <v>0.1329</v>
       </c>
       <c r="F390" t="n">
         <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>-0.6132</v>
+        <v>1.0577</v>
       </c>
     </row>
     <row r="391">
@@ -10518,22 +10521,22 @@
         <v>396</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.2609</v>
+        <v>0.7194</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.6711</v>
+        <v>1.2432</v>
       </c>
       <c r="D391" t="n">
-        <v>0.3309</v>
+        <v>3.2471</v>
       </c>
       <c r="E391" t="n">
-        <v>0.1329</v>
+        <v>1.2389</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
       </c>
       <c r="G391" t="n">
-        <v>1.0577</v>
+        <v>1.3956</v>
       </c>
     </row>
     <row r="392">
@@ -10541,22 +10544,22 @@
         <v>397</v>
       </c>
       <c r="B392" t="n">
-        <v>0.7194</v>
+        <v>0.6494</v>
       </c>
       <c r="C392" t="n">
-        <v>1.2432</v>
+        <v>0.267</v>
       </c>
       <c r="D392" t="n">
-        <v>3.2471</v>
+        <v>1.1057</v>
       </c>
       <c r="E392" t="n">
-        <v>1.2389</v>
+        <v>-1.2675</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1.3956</v>
+        <v>1.5484</v>
       </c>
     </row>
     <row r="393">
@@ -10564,22 +10567,45 @@
         <v>398</v>
       </c>
       <c r="B393" t="n">
-        <v>0.6494</v>
+        <v>0.7097</v>
       </c>
       <c r="C393" t="n">
-        <v>0.267</v>
+        <v>0</v>
       </c>
       <c r="D393" t="n">
-        <v>1.1057</v>
+        <v>0.3402</v>
       </c>
       <c r="E393" t="n">
-        <v>-1.2675</v>
+        <v>0.6197</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1.5484</v>
+        <v>0.6353</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>399</v>
+      </c>
+      <c r="B394" t="n">
+        <v>-0.1281</v>
+      </c>
+      <c r="C394" t="n">
+        <v>-1.3578</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1.5742</v>
+      </c>
+      <c r="E394" t="n">
+        <v>-3.9155</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.2525</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -35,433 +35,442 @@
     <t xml:space="preserve">ISS</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-01-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-02-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-03-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-05-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-08-01</t>
+    <t xml:space="preserve">X2018.01.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.01.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.02.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.03.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.04.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.05.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.04.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.06.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.07.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.08.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.08.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2018.08.03</t>
   </si>
 </sst>
 </file>
@@ -3170,22 +3179,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.1364</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.4188</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.4486</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3886</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.0455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3193,22 +3202,22 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5409</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0928</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.2526</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.9967</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>1.4117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3216,22 +3225,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.2017</v>
+        <v>0.5409</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.8364</v>
+        <v>-0.0928</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.5526</v>
+        <v>-0.2526</v>
       </c>
       <c r="E106" t="n">
-        <v>-1.0395</v>
+        <v>-1.9967</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.1347</v>
+        <v>1.4117</v>
       </c>
     </row>
     <row r="107">
@@ -3239,22 +3248,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1456</v>
+        <v>-0.2017</v>
       </c>
       <c r="C107" t="n">
-        <v>2.1556</v>
+        <v>-0.8364</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3705</v>
+        <v>-0.5526</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.5462</v>
+        <v>-1.0395</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.7194</v>
+        <v>-0.1347</v>
       </c>
     </row>
     <row r="108">
@@ -3262,22 +3271,22 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.0666</v>
+        <v>1.1456</v>
       </c>
       <c r="C108" t="n">
-        <v>0.367</v>
+        <v>2.1556</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.4844</v>
+        <v>0.3705</v>
       </c>
       <c r="E108" t="n">
-        <v>2.2391</v>
+        <v>-0.5462</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4076</v>
+        <v>-0.7194</v>
       </c>
     </row>
     <row r="109">
@@ -3285,22 +3294,22 @@
         <v>114</v>
       </c>
       <c r="B109" t="n">
-        <v>1.5333</v>
+        <v>-0.0666</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.1371</v>
+        <v>0.367</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.0927</v>
+        <v>-0.4844</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>2.2391</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1804</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="110">
@@ -3308,22 +3317,22 @@
         <v>115</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.1162</v>
+        <v>1.5333</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2746</v>
+        <v>-0.1371</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4872</v>
+        <v>-0.0927</v>
       </c>
       <c r="E110" t="n">
-        <v>2.0455</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1351</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="111">
@@ -3331,22 +3340,22 @@
         <v>116</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3984</v>
+        <v>-1.1162</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.5933</v>
+        <v>0.2746</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.2237</v>
+        <v>0.4872</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.7738</v>
+        <v>2.0455</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>1.8885</v>
+        <v>0.1351</v>
       </c>
     </row>
     <row r="112">
@@ -3354,22 +3363,22 @@
         <v>117</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.7333</v>
+        <v>-0.3984</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.112</v>
+        <v>-0.5933</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.9818</v>
+        <v>-1.2237</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.9579</v>
+        <v>-2.7738</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-1.5887</v>
+        <v>1.8885</v>
       </c>
     </row>
     <row r="113">
@@ -3377,22 +3386,22 @@
         <v>118</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4701</v>
+        <v>-0.7333</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.1257</v>
+        <v>-2.112</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.5732</v>
+        <v>-0.9818</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9462</v>
+        <v>-0.9579</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.0448</v>
+        <v>-1.5887</v>
       </c>
     </row>
     <row r="114">
@@ -3400,22 +3409,22 @@
         <v>119</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4011</v>
+        <v>0.4701</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.9962</v>
+        <v>-1.1257</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.0727</v>
+        <v>-2.5732</v>
       </c>
       <c r="E114" t="n">
-        <v>5.603</v>
+        <v>0.9462</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.0897</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="115">
@@ -3423,22 +3432,22 @@
         <v>120</v>
       </c>
       <c r="B115" t="n">
-        <v>0.466</v>
+        <v>0.4011</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.4375</v>
+        <v>-0.9962</v>
       </c>
       <c r="D115" t="n">
-        <v>-3.4433</v>
+        <v>-0.0727</v>
       </c>
       <c r="E115" t="n">
-        <v>-2.5444</v>
+        <v>5.603</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.5837</v>
+        <v>-0.0897</v>
       </c>
     </row>
     <row r="116">
@@ -3446,22 +3455,22 @@
         <v>121</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9278</v>
+        <v>0.466</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4861</v>
+        <v>-1.4375</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.3059</v>
+        <v>-3.4433</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6679</v>
+        <v>-2.5444</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>1.4002</v>
+        <v>-0.5837</v>
       </c>
     </row>
     <row r="117">
@@ -3469,22 +3478,22 @@
         <v>122</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.6415</v>
+        <v>0.9278</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.4998</v>
+        <v>0.4861</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.0356</v>
+        <v>-1.3059</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9248</v>
+        <v>0.6679</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.98</v>
+        <v>1.4002</v>
       </c>
     </row>
     <row r="118">
@@ -3492,22 +3501,22 @@
         <v>123</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.8011</v>
+        <v>-1.6415</v>
       </c>
       <c r="C118" t="n">
-        <v>-2.9224</v>
+        <v>-1.4998</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.2597</v>
+        <v>-2.0356</v>
       </c>
       <c r="E118" t="n">
-        <v>-3.6853</v>
+        <v>0.9248</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-1.3495</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="119">
@@ -3515,22 +3524,22 @@
         <v>124</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.2019</v>
+        <v>-0.8011</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4807</v>
+        <v>-2.9224</v>
       </c>
       <c r="D119" t="n">
-        <v>0.026</v>
+        <v>-0.2597</v>
       </c>
       <c r="E119" t="n">
-        <v>1.8201</v>
+        <v>-3.6853</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0912</v>
+        <v>-1.3495</v>
       </c>
     </row>
     <row r="120">
@@ -3538,22 +3547,22 @@
         <v>125</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.2697</v>
+        <v>-0.2019</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>0.4807</v>
       </c>
       <c r="D120" t="n">
-        <v>-2.6295</v>
+        <v>0.026</v>
       </c>
       <c r="E120" t="n">
-        <v>-1.8485</v>
+        <v>1.8201</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>-1.5945</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="121">
@@ -3561,22 +3570,22 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>1.2847</v>
+        <v>-0.2697</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5791</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>2.1123</v>
+        <v>-2.6295</v>
       </c>
       <c r="E121" t="n">
-        <v>1.904</v>
+        <v>-1.8485</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>1.5278</v>
+        <v>-1.5945</v>
       </c>
     </row>
     <row r="122">
@@ -3584,22 +3593,22 @@
         <v>127</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.8011</v>
+        <v>1.2847</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1752</v>
+        <v>0.5791</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.8068</v>
+        <v>2.1123</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.528</v>
+        <v>1.904</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>-1.368</v>
+        <v>1.5278</v>
       </c>
     </row>
     <row r="123">
@@ -3607,22 +3616,22 @@
         <v>128</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9421</v>
+        <v>-0.8011</v>
       </c>
       <c r="C123" t="n">
-        <v>1.003</v>
+        <v>-0.1752</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5867</v>
+        <v>-1.8068</v>
       </c>
       <c r="E123" t="n">
-        <v>2.3377</v>
+        <v>-0.528</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.8784</v>
+        <v>-1.368</v>
       </c>
     </row>
     <row r="124">
@@ -3630,22 +3639,22 @@
         <v>129</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8</v>
+        <v>0.9421</v>
       </c>
       <c r="C124" t="n">
-        <v>-2.0109</v>
+        <v>1.003</v>
       </c>
       <c r="D124" t="n">
-        <v>-1.7232</v>
+        <v>0.5867</v>
       </c>
       <c r="E124" t="n">
-        <v>1.3466</v>
+        <v>2.3377</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>-1.3749</v>
+        <v>0.8784</v>
       </c>
     </row>
     <row r="125">
@@ -3653,22 +3662,22 @@
         <v>130</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1984</v>
+        <v>0.8</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.6096</v>
+        <v>-2.0109</v>
       </c>
       <c r="D125" t="n">
-        <v>2.1041</v>
+        <v>-1.7232</v>
       </c>
       <c r="E125" t="n">
-        <v>1.3287</v>
+        <v>1.3466</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>0.7435</v>
+        <v>-1.3749</v>
       </c>
     </row>
     <row r="126">
@@ -3676,22 +3685,22 @@
         <v>131</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2651</v>
+        <v>-0.1984</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.8065</v>
+        <v>-2.6096</v>
       </c>
       <c r="D126" t="n">
-        <v>-2.4042</v>
+        <v>2.1041</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.34</v>
+        <v>1.3287</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1.5683</v>
+        <v>0.7435</v>
       </c>
     </row>
     <row r="127">
@@ -3699,22 +3708,22 @@
         <v>132</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9914</v>
+        <v>0.2651</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9441</v>
+        <v>-0.8065</v>
       </c>
       <c r="D127" t="n">
-        <v>1.2453</v>
+        <v>-2.4042</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3899</v>
+        <v>-0.34</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>1.0899</v>
+        <v>1.5683</v>
       </c>
     </row>
     <row r="128">
@@ -3722,22 +3731,22 @@
         <v>133</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4581</v>
+        <v>0.9914</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7015</v>
+        <v>0.9441</v>
       </c>
       <c r="D128" t="n">
-        <v>0.9626</v>
+        <v>1.2453</v>
       </c>
       <c r="E128" t="n">
-        <v>3.2524</v>
+        <v>0.3899</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1.3477</v>
+        <v>1.0899</v>
       </c>
     </row>
     <row r="129">
@@ -3745,22 +3754,22 @@
         <v>134</v>
       </c>
       <c r="B129" t="n">
-        <v>1.811</v>
+        <v>0.4581</v>
       </c>
       <c r="C129" t="n">
-        <v>0.0774</v>
+        <v>0.7015</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.3771</v>
+        <v>0.9626</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.7522</v>
+        <v>3.2524</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.7092</v>
+        <v>1.3477</v>
       </c>
     </row>
     <row r="130">
@@ -3768,22 +3777,22 @@
         <v>135</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2587</v>
+        <v>1.811</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5672</v>
+        <v>0.0774</v>
       </c>
       <c r="D130" t="n">
-        <v>1.3695</v>
+        <v>-1.3771</v>
       </c>
       <c r="E130" t="n">
-        <v>2.558</v>
+        <v>-0.7522</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0.2232</v>
+        <v>-0.7092</v>
       </c>
     </row>
     <row r="131">
@@ -3791,22 +3800,22 @@
         <v>136</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.7742</v>
+        <v>0.2587</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.564</v>
+        <v>0.5672</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.2649</v>
+        <v>1.3695</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2771</v>
+        <v>2.558</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0891</v>
+        <v>0.2232</v>
       </c>
     </row>
     <row r="132">
@@ -3814,22 +3823,22 @@
         <v>137</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1951</v>
+        <v>-0.7742</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1031</v>
+        <v>-0.564</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.2656</v>
+        <v>-0.2649</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4146</v>
+        <v>0.2771</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.7566</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="133">
@@ -3837,22 +3846,22 @@
         <v>138</v>
       </c>
       <c r="B133" t="n">
-        <v>1.7521</v>
+        <v>0.1951</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6968</v>
+        <v>-0.1031</v>
       </c>
       <c r="D133" t="n">
-        <v>2.3702</v>
+        <v>-0.2656</v>
       </c>
       <c r="E133" t="n">
-        <v>2.2936</v>
+        <v>0.4146</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.1794</v>
+        <v>-0.7566</v>
       </c>
     </row>
     <row r="134">
@@ -3860,22 +3869,22 @@
         <v>139</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.4464</v>
+        <v>1.7521</v>
       </c>
       <c r="C134" t="n">
-        <v>-9.1235</v>
+        <v>0.6968</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5983</v>
+        <v>2.3702</v>
       </c>
       <c r="E134" t="n">
-        <v>1.1211</v>
+        <v>2.2936</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1797</v>
+        <v>-0.1794</v>
       </c>
     </row>
     <row r="135">
@@ -3883,22 +3892,22 @@
         <v>140</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.7047</v>
+        <v>-0.4464</v>
       </c>
       <c r="C135" t="n">
-        <v>2.5945</v>
+        <v>-9.1235</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.4138</v>
+        <v>0.5983</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.2217</v>
+        <v>1.1211</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2.1076</v>
+        <v>0.1797</v>
       </c>
     </row>
     <row r="136">
@@ -3906,22 +3915,22 @@
         <v>141</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>-0.7047</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.6322</v>
+        <v>2.5945</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1298</v>
+        <v>-0.4138</v>
       </c>
       <c r="E136" t="n">
-        <v>1.0222</v>
+        <v>-0.2217</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.4831</v>
+        <v>2.1076</v>
       </c>
     </row>
     <row r="137">
@@ -3932,19 +3941,19 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1.7151</v>
+        <v>-0.6322</v>
       </c>
       <c r="D137" t="n">
-        <v>0.13</v>
+        <v>-0.1298</v>
       </c>
       <c r="E137" t="n">
-        <v>-1.1879</v>
+        <v>1.0222</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.2185</v>
+        <v>0.4831</v>
       </c>
     </row>
     <row r="138">
@@ -3952,22 +3961,22 @@
         <v>143</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.0968</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1.3054</v>
+        <v>1.7151</v>
       </c>
       <c r="D138" t="n">
-        <v>2.0254</v>
+        <v>0.13</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4898</v>
+        <v>-1.1879</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.6132</v>
+        <v>-0.2185</v>
       </c>
     </row>
     <row r="139">
@@ -3975,22 +3984,22 @@
         <v>144</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.2609</v>
+        <v>-1.0968</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.6711</v>
+        <v>1.3054</v>
       </c>
       <c r="D139" t="n">
-        <v>0.3309</v>
+        <v>2.0254</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1329</v>
+        <v>0.4898</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>1.0577</v>
+        <v>-0.6132</v>
       </c>
     </row>
     <row r="140">
@@ -3998,22 +4007,22 @@
         <v>145</v>
       </c>
       <c r="B140" t="n">
-        <v>0.7194</v>
+        <v>-0.2609</v>
       </c>
       <c r="C140" t="n">
-        <v>1.2432</v>
+        <v>-0.6711</v>
       </c>
       <c r="D140" t="n">
-        <v>3.2471</v>
+        <v>0.3309</v>
       </c>
       <c r="E140" t="n">
-        <v>1.2389</v>
+        <v>0.1329</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>1.3956</v>
+        <v>1.0577</v>
       </c>
     </row>
     <row r="141">
@@ -4021,22 +4030,22 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6494</v>
+        <v>0.7194</v>
       </c>
       <c r="C141" t="n">
-        <v>0.267</v>
+        <v>1.2432</v>
       </c>
       <c r="D141" t="n">
-        <v>1.1057</v>
+        <v>3.2471</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.2675</v>
+        <v>1.2389</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>1.5484</v>
+        <v>1.3956</v>
       </c>
     </row>
     <row r="142">
@@ -4044,22 +4053,22 @@
         <v>147</v>
       </c>
       <c r="B142" t="n">
-        <v>0.7097</v>
+        <v>0.6494</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.267</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3402</v>
+        <v>1.1057</v>
       </c>
       <c r="E142" t="n">
-        <v>0.6197</v>
+        <v>-1.2675</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0.6353</v>
+        <v>1.5484</v>
       </c>
     </row>
     <row r="143">
@@ -4067,22 +4076,22 @@
         <v>148</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.1281</v>
+        <v>0.7097</v>
       </c>
       <c r="C143" t="n">
-        <v>-1.3578</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1.5742</v>
+        <v>0.3402</v>
       </c>
       <c r="E143" t="n">
-        <v>-3.9155</v>
+        <v>0.6197</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>0.2525</v>
+        <v>0.6353</v>
       </c>
     </row>
     <row r="144">
@@ -4090,22 +4099,91 @@
         <v>149</v>
       </c>
       <c r="B144" t="n">
+        <v>-0.1281</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-1.3578</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.5742</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-3.9155</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.2525</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="n">
         <v>0.2566</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C145" t="n">
         <v>-1.3225</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D145" t="n">
         <v>-1.3352</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E145" t="n">
         <v>1.1447</v>
       </c>
-      <c r="F144" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" t="n">
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
         <v>0.2099</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.3839</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-2.0788</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-1.6433</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-0.2716</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1.3825</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4496</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.1229</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-1.8919</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.6355</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-0.0425</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -483,6 +483,36 @@
   </si>
   <si>
     <t xml:space="preserve">2018-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-24</t>
   </si>
 </sst>
 </file>
@@ -4290,6 +4320,236 @@
         <v>-2.0684</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.6345</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-1.757</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.5508</v>
+      </c>
+      <c r="F152" t="n">
+        <v>5.3753</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.6466</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.0631</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-2.012</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-1.4358</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-1.7964</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.6221</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2.0557</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.5678</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.7492</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-3.8334</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-2.0638</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-3.864</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1.0057</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.6494</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.1161</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.7663</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.9903</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-3.8869</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.1266</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.6051</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.5256</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-1.561</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1.1949</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.2535</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.6834</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.6993</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.6651</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-2.8227</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3.7674</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.3177</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.3258</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.7712</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-0.5739</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.0326</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.1345</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.5066</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.9215</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.4337</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.3468</v>
+      </c>
+      <c r="F159" t="n">
+        <v>7.4714</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.2238</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.7002</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-1.0887</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.4612</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.4713</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.0018</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.2506</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.3205</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.8255</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-1.1222</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-0.2806</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-0.2405</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-0.1323</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -513,6 +513,45 @@
   </si>
   <si>
     <t xml:space="preserve">2018-08-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-12</t>
   </si>
 </sst>
 </file>
@@ -4550,6 +4589,305 @@
         <v>-0.1323</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.4473</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.0037</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.4503</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.7824</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.2353</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.1042</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3817</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.6979</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.2659</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0461</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-0.2976</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-0.8737</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-0.0634</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.1822</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-0.0492</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.0594</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-0.6866</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-0.2644</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-0.6341</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.2338</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.2463</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.2762</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.4509</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-0.3093</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-1.5885</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-1.4815</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>-0.3291</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-0.6206</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-0.3802</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.1058</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-1.0526</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-2.4752</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.1915</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-0.223</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-0.3817</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-6.1856</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-1.6211</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.8813</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-0.8941</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.447</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.4232</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.8496</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-2.3459</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-2.1043</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2.0749</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.2566</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.6506</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.3635</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-0.6123</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2119</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.4606</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.128</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-4.1949</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-2.111</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.8057</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.4834</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-0.5044</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.1922</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-2.9379</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.0916</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-1.8806</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-1.8641</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.5069</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.3836</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.6694</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-1.3958</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.5812</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.4902</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-0.5044</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.3851</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-1.5236</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.2671</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.3585</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.6098</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-0.2304</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -552,6 +552,87 @@
   </si>
   <si>
     <t xml:space="preserve">2018-09-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-19</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0891</v>
+        <v>1.089</v>
       </c>
       <c r="C3" t="n">
         <v>0.8699</v>
@@ -1466,7 +1547,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.8119</v>
+        <v>-1.8118</v>
       </c>
       <c r="C26" t="n">
         <v>-2.5316</v>
@@ -1627,7 +1708,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1403</v>
+        <v>0.1402</v>
       </c>
       <c r="C33" t="n">
         <v>0.6552</v>
@@ -1696,7 +1777,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6241</v>
+        <v>0.6242</v>
       </c>
       <c r="C36" t="n">
         <v>-1.6459</v>
@@ -1926,7 +2007,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2782</v>
+        <v>0.2781</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -2869,7 +2950,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>1.1757</v>
+        <v>1.1756</v>
       </c>
       <c r="C87" t="n">
         <v>0.8376</v>
@@ -4886,6 +4967,627 @@
       </c>
       <c r="G174" t="n">
         <v>-0.2304</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1276</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.5534</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.2688</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-1.6941</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-2.4134</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.2927</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-3.3457</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.8272</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-2.6328</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0951</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.7293</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.6849</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-2.1758</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-2.4102</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-0.9524</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-0.875</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-0.4904</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-2.0873</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-0.4131</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.2051</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-0.4876</v>
+      </c>
+      <c r="F188" t="n">
+        <v>-0.8249</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-0.2591</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.3515</v>
+      </c>
+      <c r="E198" t="n">
+        <v>-2.115</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2.3723</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.5185</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-2.7562</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.2453</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.5627</v>
+      </c>
+      <c r="F199" t="n">
+        <v>-2.5285</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-0.3565</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t xml:space="preserve">2018-10-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-23</t>
   </si>
 </sst>
 </file>
@@ -5590,6 +5596,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.1273</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.5716</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.5988</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-1.778</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1067</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0456</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-2.2886</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-2.9513</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-2.6644</v>
+      </c>
+      <c r="E203" t="n">
+        <v>-4.4592</v>
+      </c>
+      <c r="F203" t="n">
+        <v>-2.6652</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-3.0082</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -639,6 +639,42 @@
   </si>
   <si>
     <t xml:space="preserve">2018-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-08</t>
   </si>
 </sst>
 </file>
@@ -2772,22 +2808,22 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>-0.2079</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-3.0572</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-0.7913</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>-1.2131</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>-0.8924</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="80">
@@ -2795,22 +2831,22 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.4167</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.3199</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2.7835</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>2.0379</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="81">
@@ -3209,22 +3245,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>-0.0677</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-0.0942</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-0.5067</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-20.0671</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>-0.9369</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="99">
@@ -3232,22 +3268,22 @@
         <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>-1.151</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>-2.4034</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>-0.2315</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.3147</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>-0.7812</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>-0.4138</v>
       </c>
     </row>
     <row r="100">
@@ -3278,22 +3314,22 @@
         <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.1365</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>2.1256</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-0.9745</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-3.0168</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>-0.7755</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="102">
@@ -3301,22 +3337,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.9543</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2.2233</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1.8041</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>2.0668</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.6993</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.9191</v>
       </c>
     </row>
     <row r="103">
@@ -4980,22 +5016,22 @@
         <v>180</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>0.4476</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>2.2017</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>0.4795</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>-0.553</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>-0.1515</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>0.2771</v>
       </c>
     </row>
     <row r="176">
@@ -5003,22 +5039,22 @@
         <v>181</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>-0.6365</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>-1.048</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1.5376</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1.0658</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>0.0304</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>-0.1382</v>
       </c>
     </row>
     <row r="177">
@@ -5026,22 +5062,22 @@
         <v>182</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>0.4484</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>-0.6472</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-1.2272</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>-2.5676</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>-1.9417</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>-0.0922</v>
       </c>
     </row>
     <row r="178">
@@ -5095,22 +5131,22 @@
         <v>185</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1.3898</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>4.7337</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1.7175</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>3.0973</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>0.0633</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>1.267</v>
       </c>
     </row>
     <row r="181">
@@ -5118,22 +5154,22 @@
         <v>186</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>0.0623</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>-3.9266</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>0.1431</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1.2979</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>0.2234</v>
       </c>
     </row>
     <row r="182">
@@ -5164,22 +5200,22 @@
         <v>188</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>-0.9276</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>2.1942</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1.1577</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>2.2596</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1.0719</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>0.8065</v>
       </c>
     </row>
     <row r="184">
@@ -5187,22 +5223,22 @@
         <v>189</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>-0.1873</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1.3529</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>0.1301</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>0.7992</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>-1.3412</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>0.3556</v>
       </c>
     </row>
     <row r="185">
@@ -5210,22 +5246,22 @@
         <v>190</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>0.3127</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>-1.2768</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>3.7172</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>-4.6175</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>-0.411</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>0.3543</v>
       </c>
     </row>
     <row r="186">
@@ -5233,22 +5269,22 @@
         <v>191</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>-0.3117</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>-0.8231</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>0.1754</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>-1.2225</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>-0.6667</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>-0.2648</v>
       </c>
     </row>
     <row r="187">
@@ -5256,22 +5292,22 @@
         <v>192</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>-1.1257</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.4446</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-2.4268</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1.5347</v>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>0.7351</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>2.4779</v>
       </c>
     </row>
     <row r="188">
@@ -5302,22 +5338,22 @@
         <v>194</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>0.1292</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>-1.4815</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1.1515</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>-1.0779</v>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>-0.9277</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>-3.1169</v>
       </c>
     </row>
     <row r="190">
@@ -5325,22 +5361,22 @@
         <v>195</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>-0.4516</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>-4.6015</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>-1.2649</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>-2.3081</v>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>-4.6174</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>-2.4576</v>
       </c>
     </row>
     <row r="191">
@@ -5348,22 +5384,22 @@
         <v>196</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>-0.8425</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>-6.2421</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>-2.1522</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>0.0608</v>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>0.6432</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>-0.5039</v>
       </c>
     </row>
     <row r="192">
@@ -5371,22 +5407,22 @@
         <v>197</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>-1.2418</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>-3.5978</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-3.2207</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>-1.1958</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>-8.1736</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>-3.453</v>
       </c>
     </row>
     <row r="193">
@@ -5394,22 +5430,22 @@
         <v>198</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>0.6618</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>-0.872</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-0.974</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>-1.5385</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>-0.989</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>-0.8107</v>
       </c>
     </row>
     <row r="194">
@@ -5417,22 +5453,22 @@
         <v>199</v>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>-0.9205</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1.6889</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>-2.459</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>-5.5833</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>-2.5897</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1.4904</v>
       </c>
     </row>
     <row r="195">
@@ -5440,22 +5476,22 @@
         <v>200</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>2.6543</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>-2.2837</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>-3.2213</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>-1.3239</v>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>0.6457</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1.1843</v>
       </c>
     </row>
     <row r="196">
@@ -5463,22 +5499,22 @@
         <v>201</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>-0.8821</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>0.0708</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>0.6946</v>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>3.1082</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>3.9245</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>0.7022</v>
       </c>
     </row>
     <row r="197">
@@ -5486,22 +5522,22 @@
         <v>202</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>-0.0659</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-1.2031</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1.0635</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>-1.5615</v>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>-2.5418</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1.9061</v>
       </c>
     </row>
     <row r="198">
@@ -5555,22 +5591,22 @@
         <v>205</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1.5474</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>-1.3808</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>-1.0656</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>4.7001</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>3.3248</v>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>-0.0447</v>
       </c>
     </row>
     <row r="201">
@@ -5578,22 +5614,22 @@
         <v>206</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>-0.254</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>-3.3161</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>-3.1483</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>-1.4109</v>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>-0.6011</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>-1.8792</v>
       </c>
     </row>
     <row r="202">
@@ -5640,6 +5676,282 @@
       </c>
       <c r="G203" t="n">
         <v>-3.0082</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-0.7504</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-0.4077</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-5.0601</v>
+      </c>
+      <c r="F204" t="n">
+        <v>-0.4746</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-0.3759</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-1.0198</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.5571</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.6725</v>
+      </c>
+      <c r="E205" t="n">
+        <v>-3.5775</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-0.9538</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-0.6604</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-1.7386</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-0.277</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-4.0919</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.0697</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-0.4748</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.9174</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4.1743</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.6874</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1.3314</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.813</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.3896</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-1.248</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.1786</v>
+      </c>
+      <c r="E208" t="n">
+        <v>6.0365</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.2343</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.4425</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.3572</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.6935</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.5316</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.1862</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.6055</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-1.2774</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-1.2137</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-0.0617</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.3908</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1.1574</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2.0926</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-0.1479</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.1647</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-1.0616</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-0.0937</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.1739</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.6642</v>
+      </c>
+      <c r="D214" t="n">
+        <v>5.1304</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.3638</v>
+      </c>
+      <c r="F214" t="n">
+        <v>-1.681</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.797</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.7295</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-0.4165</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-2.4535</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.6526</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2.3645</v>
+      </c>
+      <c r="G215" t="n">
+        <v>3.0233</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -675,6 +675,33 @@
   </si>
   <si>
     <t xml:space="preserve">2018-11-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-11-23</t>
   </si>
 </sst>
 </file>
@@ -5798,22 +5825,22 @@
         <v>214</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>2.9754</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>-0.1975</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>-0.4413</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>1.7461</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1.2623</v>
       </c>
     </row>
     <row r="210">
@@ -5821,22 +5848,22 @@
         <v>215</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>-0.6281</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>4.907</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>0.7228</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>5.0532</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>-0.5363</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>-0.8772</v>
       </c>
     </row>
     <row r="211">
@@ -5952,6 +5979,213 @@
       </c>
       <c r="G215" t="n">
         <v>3.0233</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-0.3608</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-0.0282</v>
+      </c>
+      <c r="E219" t="n">
+        <v>-1.1765</v>
+      </c>
+      <c r="F219" t="n">
+        <v>-4.5471</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1.8182</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-2.35</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-3.5807</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-2.9446</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4.5259</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-5.5148</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.4885</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.8233</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.1822</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-1.4277</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.7732</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.8571</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-0.6667</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -798,6 +798,21 @@
   </si>
   <si>
     <t xml:space="preserve">2019-01-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-18</t>
   </si>
 </sst>
 </file>
@@ -7020,6 +7035,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -813,6 +813,21 @@
   </si>
   <si>
     <t xml:space="preserve">2019-01-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-25</t>
   </si>
 </sst>
 </file>
@@ -2187,7 +2202,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2781</v>
+        <v>0.2782</v>
       </c>
       <c r="C46" t="n">
         <v>-0.3705</v>
@@ -2509,7 +2524,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.0722</v>
+        <v>-0.0721</v>
       </c>
       <c r="C60" t="n">
         <v>-0.9649</v>
@@ -3567,7 +3582,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.2017</v>
+        <v>-0.2018</v>
       </c>
       <c r="C106" t="n">
         <v>-0.8364</v>
@@ -3912,7 +3927,7 @@
         <v>126</v>
       </c>
       <c r="B121" t="n">
-        <v>1.2847</v>
+        <v>1.2846</v>
       </c>
       <c r="C121" t="n">
         <v>0.5791</v>
@@ -4372,7 +4387,7 @@
         <v>146</v>
       </c>
       <c r="B141" t="n">
-        <v>0.6494</v>
+        <v>0.6493</v>
       </c>
       <c r="C141" t="n">
         <v>0.267</v>
@@ -5844,7 +5859,7 @@
         <v>210</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.0198</v>
+        <v>-1.0197</v>
       </c>
       <c r="C205" t="n">
         <v>0.5571</v>
@@ -7132,21 +7147,136 @@
         <v>266</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1.4616</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>-0.7064</v>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>1.5274</v>
       </c>
       <c r="E261" t="n">
-        <v>0</v>
+        <v>-2.9075</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>-0.1072</v>
       </c>
       <c r="G261" t="n">
+        <v>3.1813</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="n">
         <v>0</v>
       </c>
     </row>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -828,6 +828,21 @@
   </si>
   <si>
     <t xml:space="preserve">2019-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-01</t>
   </si>
 </sst>
 </file>
@@ -7262,22 +7277,137 @@
         <v>271</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>0.0592</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>2.1624</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>2.6617</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>-1.5942</v>
       </c>
       <c r="F266" t="n">
-        <v>0</v>
+        <v>1.2548</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>0.6026</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.8279</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-2.1565</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-2.2309</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2.4826</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-0.1721</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1.1719</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.8945</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-0.0816</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.7709</v>
+      </c>
+      <c r="E268" t="n">
+        <v>-1.4576</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="C271" t="n">
+        <v>5.2282</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-2.7878</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.2247</v>
+      </c>
+      <c r="F271" t="n">
+        <v>-0.7479</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2.3066</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -843,6 +843,18 @@
   </si>
   <si>
     <t xml:space="preserve">2019-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-07</t>
   </si>
 </sst>
 </file>
@@ -7392,22 +7404,114 @@
         <v>276</v>
       </c>
       <c r="B271" t="n">
-        <v>1.383</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>5.2282</v>
+        <v>0</v>
       </c>
       <c r="D271" t="n">
-        <v>-2.7878</v>
+        <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>1.2247</v>
+        <v>0</v>
       </c>
       <c r="F271" t="n">
-        <v>-0.7479</v>
+        <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>2.3066</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-0.1753</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-0.5138</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-0.1936</v>
+      </c>
+      <c r="E274" t="n">
+        <v>-1.6033</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-0.5498</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-2.0919</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-0.6754</v>
+      </c>
+      <c r="D275" t="n">
+        <v>-0.3232</v>
+      </c>
+      <c r="E275" t="n">
+        <v>-0.2716</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.0691</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-0.0264</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -855,6 +855,87 @@
   </si>
   <si>
     <t xml:space="preserve">2019-02-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-18</t>
   </si>
 </sst>
 </file>
@@ -6139,22 +6220,22 @@
         <v>221</v>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1.1467</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>0.488</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-2.3217</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>-1.0075</v>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>2.0611</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1.2641</v>
       </c>
     </row>
     <row r="217">
@@ -6162,22 +6243,22 @@
         <v>222</v>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>-0.537</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>-0.8325</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-0.7074</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>-3.3454</v>
       </c>
       <c r="F217" t="n">
-        <v>0</v>
+        <v>-1.915</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>0.4904</v>
       </c>
     </row>
     <row r="218">
@@ -6185,22 +6266,22 @@
         <v>223</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>-0.2399</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>-1.3641</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1.0544</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>-2.5229</v>
       </c>
       <c r="F218" t="n">
-        <v>0</v>
+        <v>-0.852</v>
       </c>
       <c r="G218" t="n">
-        <v>0</v>
+        <v>2.4845</v>
       </c>
     </row>
     <row r="219">
@@ -6231,22 +6312,22 @@
         <v>225</v>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>-2.3537</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>-3.4686</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>-2.3413</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>-2.1212</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>-3.6384</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>-1.6314</v>
       </c>
     </row>
     <row r="221">
@@ -6254,22 +6335,22 @@
         <v>226</v>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>-0.309</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>-1.6888</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>1.2709</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1.5259</v>
       </c>
       <c r="F221" t="n">
-        <v>0</v>
+        <v>2.608</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>0.8516</v>
       </c>
     </row>
     <row r="222">
@@ -6277,22 +6358,22 @@
         <v>227</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>-0.9868</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>-1.1979</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1.0673</v>
       </c>
       <c r="F222" t="n">
-        <v>0</v>
+        <v>-1.6313</v>
       </c>
       <c r="G222" t="n">
-        <v>0</v>
+        <v>-1.4667</v>
       </c>
     </row>
     <row r="223">
@@ -6323,22 +6404,22 @@
         <v>229</v>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1.0766</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>0.8423</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>0.4164</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>-4.1237</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>-1.3469</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>0.4889</v>
       </c>
     </row>
     <row r="225">
@@ -6346,22 +6427,22 @@
         <v>230</v>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>-1.0025</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>0.9491</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>-0.2962</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>2.9032</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1.4895</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>-0.4865</v>
       </c>
     </row>
     <row r="226">
@@ -6369,22 +6450,22 @@
         <v>231</v>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>0.7595</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>0.3761</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1.5449</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>3.1557</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>2.7313</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>-0.6667</v>
       </c>
     </row>
     <row r="227">
@@ -6392,22 +6473,22 @@
         <v>232</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>0.9422</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>2.0232</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>3.9529</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>1.7018</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>-5.5556</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>2.4609</v>
       </c>
     </row>
     <row r="228">
@@ -6415,22 +6496,22 @@
         <v>233</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>0.0622</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>-0.8447</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-2.2351</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>-2.0319</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>-2.0168</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>0.3493</v>
       </c>
     </row>
     <row r="229">
@@ -6438,22 +6519,22 @@
         <v>234</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>0.0622</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>0.7407</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-0.2969</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>0.8743</v>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>-2.6587</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>-1.8277</v>
       </c>
     </row>
     <row r="230">
@@ -6461,22 +6542,22 @@
         <v>235</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>0.8701</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>-3.1618</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>0.5063</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>1.2901</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>4.0529</v>
       </c>
       <c r="G230" t="n">
-        <v>0</v>
+        <v>-3.945</v>
       </c>
     </row>
     <row r="231">
@@ -6507,22 +6588,22 @@
         <v>237</v>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>-0.1829</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1.4079</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>4.6941</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>0.5982</v>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>3.2566</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>-4.5391</v>
       </c>
     </row>
     <row r="233">
@@ -6530,22 +6611,22 @@
         <v>238</v>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1.7104</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>-0.1126</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-3.4423</v>
       </c>
       <c r="E233" t="n">
-        <v>0</v>
+        <v>0.3964</v>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>0.6308</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>-0.1961</v>
       </c>
     </row>
     <row r="234">
@@ -6553,22 +6634,22 @@
         <v>239</v>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>-1.4414</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>5.5597</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>-1.1983</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>2.5073</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>-1.0314</v>
       </c>
     </row>
     <row r="235">
@@ -6576,22 +6657,22 @@
         <v>240</v>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>-1.5844</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>-2.8826</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>-5.094</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>-0.7404</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>-0.6115</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>-4.3424</v>
       </c>
     </row>
     <row r="236">
@@ -6599,22 +6680,22 @@
         <v>241</v>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>0.2477</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>4.214</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>0.639</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>-0.7658</v>
       </c>
       <c r="F236" t="n">
-        <v>0</v>
+        <v>0.5742</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>2.179</v>
       </c>
     </row>
     <row r="237">
@@ -6622,22 +6703,22 @@
         <v>242</v>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>-0.3706</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>-3.4107</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-2.9841</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>2.726</v>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>2.2023</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>-5.7883</v>
       </c>
     </row>
     <row r="238">
@@ -6645,22 +6726,22 @@
         <v>243</v>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>-0.186</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1.9294</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>1.6361</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>-0.0976</v>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>-0.4389</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>2.1558</v>
       </c>
     </row>
     <row r="239">
@@ -6668,22 +6749,22 @@
         <v>244</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1.4286</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>-0.6071</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>0.0966</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>3.1738</v>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>2.1643</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>-1.2925</v>
       </c>
     </row>
     <row r="240">
@@ -6691,22 +6772,22 @@
         <v>245</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1.041</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>-0.1078</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-0.579</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>1.0412</v>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>-2.1969</v>
       </c>
       <c r="G240" t="n">
-        <v>0</v>
+        <v>1.1224</v>
       </c>
     </row>
     <row r="241">
@@ -6714,22 +6795,22 @@
         <v>246</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-0.6835</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>-0.9382</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>0.0937</v>
       </c>
       <c r="F241" t="n">
-        <v>0</v>
+        <v>0.3209</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>0.8192</v>
       </c>
     </row>
     <row r="242">
@@ -6737,22 +6818,22 @@
         <v>247</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>-0.1208</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>-1.9196</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>-2.5474</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>-0.1404</v>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1.9592</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>1.0223</v>
       </c>
     </row>
     <row r="243">
@@ -6760,22 +6841,22 @@
         <v>248</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>-1.9359</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1.5879</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>0.5027</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>-2.671</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>0.4314</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>-0.9081</v>
       </c>
     </row>
     <row r="244">
@@ -6783,22 +6864,22 @@
         <v>249</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1.4189</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>-2.2174</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>2.0703</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>0.7809</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="245">
@@ -6806,22 +6887,22 @@
         <v>250</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>-0.4258</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>-3.9033</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1.8333</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>0.3774</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>-7.1678</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>-2.7741</v>
       </c>
     </row>
     <row r="246">
@@ -6829,22 +6910,22 @@
         <v>251</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>-1.3439</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>-0.7737</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>0.9508</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>0.6109</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>2.0868</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>-0.6999</v>
       </c>
     </row>
     <row r="247">
@@ -6852,22 +6933,22 @@
         <v>252</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>-0.3096</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>-1.5984</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-4.8772</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>-2.0084</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>-1.1856</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>-3.0903</v>
       </c>
     </row>
     <row r="248">
@@ -6875,22 +6956,22 @@
         <v>253</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1.8012</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>2.1395</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>3.6422</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>1.7636</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>0.662</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1.8462</v>
       </c>
     </row>
     <row r="249">
@@ -6898,22 +6979,22 @@
         <v>254</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>0.5491</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>-0.1552</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>1.6718</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>-4.0281</v>
       </c>
       <c r="F249" t="n">
-        <v>0</v>
+        <v>5.0555</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>1.0711</v>
       </c>
     </row>
     <row r="250">
@@ -6924,16 +7005,16 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>-0.2331</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>-1.5772</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>-0.1464</v>
       </c>
       <c r="F250" t="n">
-        <v>0</v>
+        <v>-3.3646</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6944,22 +7025,22 @@
         <v>256</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>-0.182</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>4.2446</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>3.9891</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>4.2033</v>
       </c>
       <c r="F251" t="n">
-        <v>0</v>
+        <v>5.5466</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>2.9076</v>
       </c>
     </row>
     <row r="252">
@@ -6967,22 +7048,22 @@
         <v>257</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>-1.155</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-0.2615</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>2.9836</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>2.6735</v>
       </c>
       <c r="F252" t="n">
-        <v>0</v>
+        <v>1.7645</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>-1.5052</v>
       </c>
     </row>
     <row r="253">
@@ -6990,22 +7071,22 @@
         <v>258</v>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>0.246</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>-0.4869</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="E253" t="n">
-        <v>0</v>
+        <v>0.5482</v>
       </c>
       <c r="F253" t="n">
-        <v>0</v>
+        <v>4.0709</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>2.0375</v>
       </c>
     </row>
     <row r="254">
@@ -7013,22 +7094,22 @@
         <v>259</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>0.2454</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>-1.2044</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>2.3197</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>1.045</v>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>0.2535</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>-0.0526</v>
       </c>
     </row>
     <row r="255">
@@ -7036,22 +7117,22 @@
         <v>260</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>0.7344</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>-2.6667</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-0.3064</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>-2.473</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>0.289</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>-0.2103</v>
       </c>
     </row>
     <row r="256">
@@ -7059,22 +7140,22 @@
         <v>261</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>-0.9721</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1.409</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-1.6595</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>-1.1987</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>-0.7205</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>-0.1844</v>
       </c>
     </row>
     <row r="257">
@@ -7082,22 +7163,22 @@
         <v>262</v>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>-1.6564</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>0.3474</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-1.3125</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>-2.7998</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>-1.8142</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>-1.478</v>
       </c>
     </row>
     <row r="258">
@@ -7105,22 +7186,22 @@
         <v>263</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>0.1248</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>-1.5385</v>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>-0.6016</v>
       </c>
       <c r="E258" t="n">
-        <v>0</v>
+        <v>-0.7681</v>
       </c>
       <c r="F258" t="n">
-        <v>0</v>
+        <v>1.2195</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>-0.3482</v>
       </c>
     </row>
     <row r="259">
@@ -7128,22 +7209,22 @@
         <v>264</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>2.1807</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>0.5859</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>2.1026</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>0.3387</v>
       </c>
       <c r="F259" t="n">
-        <v>0</v>
+        <v>2.7382</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="260">
@@ -7151,22 +7232,22 @@
         <v>265</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>-1.0485</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>0.0936</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1.1572</v>
       </c>
       <c r="F260" t="n">
-        <v>0</v>
+        <v>-0.5686</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1.3706</v>
       </c>
     </row>
     <row r="261">
@@ -7197,22 +7278,22 @@
         <v>267</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>0.5402</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1.9763</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>2.2106</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>1.5709</v>
       </c>
       <c r="F262" t="n">
-        <v>0</v>
+        <v>2.2183</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="263">
@@ -7220,22 +7301,22 @@
         <v>268</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1.4925</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-2.3256</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>-2.4332</v>
       </c>
       <c r="E263" t="n">
-        <v>0</v>
+        <v>-3.4123</v>
       </c>
       <c r="F263" t="n">
-        <v>0</v>
+        <v>1.9951</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1.623</v>
       </c>
     </row>
     <row r="264">
@@ -7243,22 +7324,22 @@
         <v>269</v>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>-0.6237</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>-0.7937</v>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-1.7549</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>-1.4211</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>-0.755</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>-0.7213</v>
       </c>
     </row>
     <row r="265">
@@ -7266,22 +7347,22 @@
         <v>270</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1.0161</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>-1.96</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>1.2535</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>-1.9289</v>
       </c>
       <c r="F265" t="n">
-        <v>0</v>
+        <v>-0.7953</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="266">
@@ -7358,22 +7439,22 @@
         <v>274</v>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>-0.4137</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>0.2859</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>-0.3672</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>-0.5417</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>-2.5172</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>-0.4211</v>
       </c>
     </row>
     <row r="270">
@@ -7381,22 +7462,22 @@
         <v>275</v>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>-1.3056</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>-1.833</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>-6.3575</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>-0.796</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>-0.6721</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>-2.6163</v>
       </c>
     </row>
     <row r="271">
@@ -7404,22 +7485,22 @@
         <v>276</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1.383</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>5.2282</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-2.7878</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1.2247</v>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>-0.7479</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>2.3066</v>
       </c>
     </row>
     <row r="272">
@@ -7427,22 +7508,22 @@
         <v>277</v>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>0.3559</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>-2.2871</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>3.2389</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>-0.2712</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>0.9688</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>-0.2122</v>
       </c>
     </row>
     <row r="273">
@@ -7450,22 +7531,22 @@
         <v>278</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1.1229</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>2.0985</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>1.3072</v>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
+        <v>1.757</v>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>3.4115</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>2.924</v>
       </c>
     </row>
     <row r="274">
@@ -7512,6 +7593,627 @@
       </c>
       <c r="G275" t="n">
         <v>-0.0264</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.0583</v>
+      </c>
+      <c r="C276" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D276" t="n">
+        <v>-2.5616</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.6912</v>
+      </c>
+      <c r="F276" t="n">
+        <v>-0.8978</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-0.8179</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-0.4086</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1.3977</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.6241</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.6385</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.8206</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.7066</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.9097</v>
+      </c>
+      <c r="F278" t="n">
+        <v>4.1922</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.5816</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.4651</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-0.9278</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-1.1939</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2.1922</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.0327</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.1314</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>285</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-0.2894</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-0.2443</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-1.2426</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-0.21</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.2902</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.551</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.8247</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.7952</v>
+      </c>
+      <c r="F281" t="n">
+        <v>-0.9934</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1.8411</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>287</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.5208</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.8087</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="E282" t="n">
+        <v>-0.2959</v>
+      </c>
+      <c r="F282" t="n">
+        <v>-0.7358</v>
+      </c>
+      <c r="G282" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>288</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.0576</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-0.4343</v>
+      </c>
+      <c r="D283" t="n">
+        <v>-2.6358</v>
+      </c>
+      <c r="E283" t="n">
+        <v>-2.0772</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-3.6725</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-0.0752</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>289</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.9206</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.2379</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.1742</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1.8182</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-0.4197</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2.1586</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>290</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.7412</v>
+      </c>
+      <c r="C285" t="n">
+        <v>-4.2722</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.2573</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6.8948</v>
+      </c>
+      <c r="F285" t="n">
+        <v>-1.5455</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-2.1622</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>291</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.0566</v>
+      </c>
+      <c r="C286" t="n">
+        <v>-0.2479</v>
+      </c>
+      <c r="D286" t="n">
+        <v>3.9796</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-0.7889</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.4638</v>
+      </c>
+      <c r="G286" t="n">
+        <v>6.7303</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>292</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.7353</v>
+      </c>
+      <c r="C287" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="D287" t="n">
+        <v>-0.398</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2.9935</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.4972</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-1.7412</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>293</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-0.0797</v>
+      </c>
+      <c r="D288" t="n">
+        <v>-0.0307</v>
+      </c>
+      <c r="E288" t="n">
+        <v>3.5422</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1.2721</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-1.5326</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>294</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.4997</v>
+      </c>
+      <c r="C289" t="n">
+        <v>3.751</v>
+      </c>
+      <c r="D289" t="n">
+        <v>-2.214</v>
+      </c>
+      <c r="E289" t="n">
+        <v>-1.2281</v>
+      </c>
+      <c r="F289" t="n">
+        <v>13.0495</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-0.2918</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>295</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-0.2232</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.3846</v>
+      </c>
+      <c r="D290" t="n">
+        <v>-1.0063</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.6661</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-2.4383</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-0.1463</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>296</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>-0.4598</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.5248</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2.4261</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-0.9491</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.4885</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>297</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.1119</v>
+      </c>
+      <c r="C292" t="n">
+        <v>-0.2694</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.8135</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.6365</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.1597</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.2431</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>298</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.2793</v>
+      </c>
+      <c r="C293" t="n">
+        <v>-0.8105</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.3104</v>
+      </c>
+      <c r="E293" t="n">
+        <v>-0.1695</v>
+      </c>
+      <c r="F293" t="n">
+        <v>-0.0319</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-0.582</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>299</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-0.4457</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5837</v>
+      </c>
+      <c r="D294" t="n">
+        <v>-1.2686</v>
+      </c>
+      <c r="E294" t="n">
+        <v>-0.9762</v>
+      </c>
+      <c r="F294" t="n">
+        <v>-0.8931</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-0.6341</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>300</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-0.6715</v>
+      </c>
+      <c r="C295" t="n">
+        <v>-1.2379</v>
+      </c>
+      <c r="D295" t="n">
+        <v>-3.4472</v>
+      </c>
+      <c r="E295" t="n">
+        <v>-1.0716</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-0.5472</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-0.5891</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>301</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="C296" t="n">
+        <v>-1.0576</v>
+      </c>
+      <c r="D296" t="n">
+        <v>-2.6615</v>
+      </c>
+      <c r="E296" t="n">
+        <v>-1.0399</v>
+      </c>
+      <c r="F296" t="n">
+        <v>-0.0324</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-0.7407</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>302</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.5605</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.8313</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.3668</v>
+      </c>
+      <c r="E297" t="n">
+        <v>-0.0438</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.7122</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>303</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-0.3344</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.5497</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3.588</v>
+      </c>
+      <c r="E298" t="n">
+        <v>-0.5256</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-0.4822</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.5473</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>304</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1.3423</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.5074</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-0.0646</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-0.5938</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>305</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.7174</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2.4777</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.3792</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.4403</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1.1635</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1.1946</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>306</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1.3699</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.3777</v>
+      </c>
+      <c r="E301" t="n">
+        <v>-1.5783</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-0.1278</v>
+      </c>
+      <c r="G301" t="n">
+        <v>2.607</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>307</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.1622</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.7129</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.4704</v>
+      </c>
+      <c r="E302" t="n">
+        <v>-0.5791</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-1.0877</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DK aktiekurser.xlsx
+++ b/DK aktiekurser.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -936,6 +936,21 @@
   </si>
   <si>
     <t xml:space="preserve">2019-03-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-25</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1371,7 @@
         <v>6.2802</v>
       </c>
       <c r="F4" t="n">
-        <v>1.9981</v>
+        <v>1.998</v>
       </c>
       <c r="G4" t="n">
         <v>-0.0409</v>
@@ -1485,7 +1500,7 @@
         <v>0.1923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7631</v>
+        <v>0.763</v>
       </c>
       <c r="D10" t="n">
         <v>-2.4022</v>
@@ -1899,7 +1914,7 @@
         <v>-0.7692</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.372</v>
+        <v>-0.3721</v>
       </c>
       <c r="D28" t="n">
         <v>2.2055</v>
@@ -2106,7 +2121,7 @@
         <v>0.4135</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6122</v>
+        <v>0.6123</v>
       </c>
       <c r="D37" t="n">
         <v>2.9957</v>
@@ -2368,7 +2383,7 @@
         <v>0.84</v>
       </c>
       <c r="F48" t="n">
-        <v>2.9232</v>
+        <v>2.9231</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2437,7 +2452,7 @@
         <v>-0.3968</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.2695</v>
+        <v>-0.2696</v>
       </c>
       <c r="G51" t="n">
         <v>-0.6192</v>
@@ -3072,7 +3087,7 @@
         <v>-0.2079</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.0572</v>
+        <v>-3.0571</v>
       </c>
       <c r="D79" t="n">
         <v>-0.7913</v>
@@ -3541,7 +3556,7 @@
         <v>0.3147</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.7812</v>
+        <v>-0.7813</v>
       </c>
       <c r="G99" t="n">
         <v>-0.4138</v>
@@ -3670,7 +3685,7 @@
         <v>0.5409</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.0928</v>
+        <v>-0.0929</v>
       </c>
       <c r="D105" t="n">
         <v>-0.2526</v>
@@ -4038,7 +4053,7 @@
         <v>1.2846</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5791</v>
+        <v>0.579</v>
       </c>
       <c r="D121" t="n">
         <v>2.1123</v>
@@ -4921,7 +4936,7 @@
         <v>1.3468</v>
       </c>
       <c r="F159" t="n">
-        <v>7.4714</v>
+        <v>7.4715</v>
       </c>
       <c r="G159" t="n">
         <v>0.2238</v>
@@ -5004,7 +5019,7 @@
         <v>0.3817</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.6979</v>
+        <v>-0.6978</v>
       </c>
       <c r="D163" t="n">
         <v>2.2659</v>
@@ -5082,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>-0.3291</v>
+        <v>-0.3292</v>
       </c>
       <c r="G166" t="n">
         <v>-0.6206</v>
@@ -5349,7 +5364,7 @@
         <v>0.1276</v>
       </c>
       <c r="C178" t="n">
-        <v>3.5534</v>
+        <v>3.5535</v>
       </c>
       <c r="D178" t="n">
         <v>1.2688</v>
@@ -6439,7 +6454,7 @@
         <v>2.9032</v>
       </c>
       <c r="F225" t="n">
-        <v>1.4895</v>
+        <v>1.4894</v>
       </c>
       <c r="G225" t="n">
         <v>-0.4865</v>
@@ -6462,7 +6477,7 @@
         <v>3.1557</v>
       </c>
       <c r="F226" t="n">
-        <v>2.7313</v>
+        <v>2.7314</v>
       </c>
       <c r="G226" t="n">
         <v>-0.6667</v>
@@ -6738,7 +6753,7 @@
         <v>-0.0976</v>
       </c>
       <c r="F238" t="n">
-        <v>-0.4389</v>
+        <v>-0.439</v>
       </c>
       <c r="G238" t="n">
         <v>2.1558</v>
@@ -6752,7 +6767,7 @@
         <v>1.4286</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.6071</v>
+        <v>-0.6072</v>
       </c>
       <c r="D239" t="n">
         <v>0.0966</v>
@@ -7442,7 +7457,7 @@
         <v>-0.4137</v>
       </c>
       <c r="C269" t="n">
-        <v>0.2859</v>
+        <v>0.286</v>
       </c>
       <c r="D269" t="n">
         <v>-0.3672</v>
@@ -8210,10 +8225,125 @@
         <v>-0.5791</v>
       </c>
       <c r="F302" t="n">
-        <v>-1.0877</v>
+        <v>-1.0876</v>
       </c>
       <c r="G302" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>308</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.6476</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.7558</v>
+      </c>
+      <c r="D303" t="n">
+        <v>-0.0936</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.1344</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1.6494</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.9108</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>309</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-0.3753</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-0.7896</v>
+      </c>
+      <c r="D304" t="n">
+        <v>-3.8426</v>
+      </c>
+      <c r="E304" t="n">
+        <v>3.6689</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.1591</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-0.3325</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>310</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-1.1303</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-1.3132</v>
+      </c>
+      <c r="D305" t="n">
+        <v>-1.2346</v>
+      </c>
+      <c r="E305" t="n">
+        <v>-0.4316</v>
+      </c>
+      <c r="F305" t="n">
+        <v>-0.6671</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-0.2383</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>311</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-0.3266</v>
+      </c>
+      <c r="C306" t="n">
+        <v>-1.9758</v>
+      </c>
+      <c r="D306" t="n">
+        <v>-2.3684</v>
+      </c>
+      <c r="E306" t="n">
+        <v>-0.0433</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-0.1445</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-1.5767</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>312</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-0.2731</v>
+      </c>
+      <c r="C307" t="n">
+        <v>-0.2468</v>
+      </c>
+      <c r="D307" t="n">
+        <v>-2.0889</v>
+      </c>
+      <c r="E307" t="n">
+        <v>-0.4337</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-1.9417</v>
       </c>
     </row>
   </sheetData>
